--- a/Ox Metrics GVAR/Ox Scripts/mat_files/Result_Matrix/_MAIN/Relacao de ensaios.xlsx
+++ b/Ox Metrics GVAR/Ox Scripts/mat_files/Result_Matrix/_MAIN/Relacao de ensaios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teo\Documents\GitHub\Tese\Ox Metrics GVAR\Ox Scripts\mat_files\Result_Matrix\_MAIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4309350D-F851-4567-983C-FE169BE0C1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADCE042-BA49-48E8-9FF9-D3C18A99F4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACEF690F-2B36-4DC1-A006-5C7891A11F01}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
   <si>
     <t>PCA</t>
   </si>
@@ -1684,7 +1684,7 @@
   <dimension ref="B2:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,11 +1743,11 @@
         <v>4.8825091578407331</v>
       </c>
       <c r="J3">
-        <f>COUNTIFS(E3:E16,E3,F3:F16,F3)</f>
+        <f>COUNTIFS($E$3:$E$16,E3,$F$3:$F$16,F3)</f>
         <v>1</v>
       </c>
       <c r="K3">
-        <f>COUNTIFS(E3:E16,E3)</f>
+        <f>COUNTIFS($E$3:$E$16,E3)</f>
         <v>1</v>
       </c>
     </row>
@@ -1776,12 +1776,12 @@
         <v>4.8723927692945646</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J13" si="2">COUNTIFS(E4:E17,E4,F4:F17,F4)</f>
+        <f t="shared" ref="J4:J15" si="2">COUNTIFS($E$3:$E$16,E4,$F$3:$F$16,F4)</f>
         <v>1</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K13" si="3">COUNTIFS(E4:E17,E4)</f>
-        <v>1</v>
+        <f t="shared" ref="K4:K14" si="3">COUNTIFS($E$3:$E$16,E4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -1975,11 +1975,11 @@
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -2062,14 +2062,17 @@
       <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5">
+        <f t="shared" si="5"/>
+        <v>-4.6073030467403342</v>
+      </c>
       <c r="J13">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K13">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -2080,8 +2083,24 @@
         <v>25</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="G14" s="5"/>
+      <c r="E14" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -2091,8 +2110,17 @@
         <v>26</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
       <c r="G15" s="5"/>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">

--- a/Ox Metrics GVAR/Ox Scripts/mat_files/Result_Matrix/_MAIN/Relacao de ensaios.xlsx
+++ b/Ox Metrics GVAR/Ox Scripts/mat_files/Result_Matrix/_MAIN/Relacao de ensaios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teo\Documents\GitHub\Tese\Ox Metrics GVAR\Ox Scripts\mat_files\Result_Matrix\_MAIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADCE042-BA49-48E8-9FF9-D3C18A99F4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B4967B-20F8-441B-9DCA-B5B521807A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACEF690F-2B36-4DC1-A006-5C7891A11F01}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
   <si>
     <t>PCA</t>
   </si>
@@ -1681,10 +1681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD603AD-80D9-423B-8C8C-99DA0102A422}">
-  <dimension ref="B2:K21"/>
+  <dimension ref="B2:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K14" si="3">COUNTIFS($E$3:$E$16,E4)</f>
+        <f t="shared" ref="K4:K16" si="3">COUNTIFS($E$3:$E$16,E4)</f>
         <v>2</v>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -1966,7 +1966,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" ref="G10:G19" si="5">LOG10(E10)</f>
+        <f t="shared" ref="G10:G24" si="5">LOG10(E10)</f>
         <v>-2.5228787452803374</v>
       </c>
       <c r="H10">
@@ -2116,11 +2116,18 @@
       <c r="F15" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
       <c r="J15">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -2130,95 +2137,136 @@
         <v>27</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="G16" s="5"/>
+      <c r="E16" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16" si="6">COUNTIFS($E$3:$E$16,E16,$F$3:$F$16,F16)</f>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D22" s="1">
         <v>362152.34516500001</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F22" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D23" s="1">
         <v>89917.38682</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F23" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D24" s="1">
         <v>61850.129827999997</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F24" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="5" t="e">
+      <c r="G24" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D25" s="1">
         <v>167210.63130499999</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E25" t="s">
         <v>10</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F25" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="5" t="e">
-        <f t="shared" ref="G20:G21" si="6">LOG10(E20)</f>
+      <c r="G25" s="5" t="e">
+        <f t="shared" ref="G25:G26" si="7">LOG10(E25)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D26" s="1">
         <v>73322.092443000001</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F26" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="5" t="e">
-        <f t="shared" si="6"/>
+      <c r="G26" s="5" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H21">
-        <f t="shared" ref="H21" si="7">LOG(D21)</f>
+      <c r="H26">
+        <f t="shared" ref="H26" si="8">LOG(D26)</f>
         <v>4.8652348502274654</v>
       </c>
     </row>

--- a/Ox Metrics GVAR/Ox Scripts/mat_files/Result_Matrix/_MAIN/Relacao de ensaios.xlsx
+++ b/Ox Metrics GVAR/Ox Scripts/mat_files/Result_Matrix/_MAIN/Relacao de ensaios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teo\Documents\GitHub\Tese\Ox Metrics GVAR\Ox Scripts\mat_files\Result_Matrix\_MAIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE8FC31-BE31-43EE-A33C-FB6133F7BD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7B60E2-4811-4F72-A6DB-E264D0DB0C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACEF690F-2B36-4DC1-A006-5C7891A11F01}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$B$2:$K$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$B$2:$K$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
   <si>
     <t>PCA</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>TRUE</t>
-  </si>
-  <si>
-    <t>MODELO 4</t>
   </si>
   <si>
     <t>FALSE</t>
@@ -157,10 +154,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00000000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00000000_-;\-* #,##0.00000000_-;_-* &quot;-&quot;????????_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -199,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -207,6 +205,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,30 +547,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Planilha1!$J$18:$J$26</c:f>
+              <c:f>Planilha1!$J$17:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-4.6073030467403342</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2</c:v>
+                  <c:v>-4.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4</c:v>
+                  <c:v>-4.6073030467403342</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-4.5000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.75</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6</c:v>
+                  <c:v>-2.5228787452803374</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-2</c:v>
@@ -584,33 +583,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Planilha1!$K$18:$K$26</c:f>
+              <c:f>Planilha1!$K$17:$K$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.935222173308496</c:v>
+                  <c:v>4.8825091578407331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8940764693789482</c:v>
+                  <c:v>4.8723927692945646</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9492974061804977</c:v>
+                  <c:v>4.8474822877899619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9396900559644106</c:v>
+                  <c:v>4.8640341828045841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.922292876152957</c:v>
+                  <c:v>4.8616816904292017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.943418287438563</c:v>
+                  <c:v>4.8843519154560786</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7781512503836439</c:v>
+                  <c:v>4.9114228117384391</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9492974061804977</c:v>
+                  <c:v>4.9524003062863295</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4.9524003062863295</c:v>
@@ -657,24 +656,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Planilha1!$J$3:$J$12</c:f>
+              <c:f>Planilha1!$J$3:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-4.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-4.6073030467403342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-4.5000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-4</c:v>
@@ -683,12 +682,9 @@
                   <c:v>-2.5228787452803374</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.5228787452803374</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.5228787452803374</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -696,39 +692,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Planilha1!$K$3:$K$12</c:f>
+              <c:f>Planilha1!$K$3:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.5588913018767068</c:v>
+                  <c:v>4.8817010424305787</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9538436769377849</c:v>
+                  <c:v>4.8940764693789482</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2232638865618188</c:v>
+                  <c:v>4.943418287438563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8652348502274654</c:v>
+                  <c:v>4.935222173308496</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7913406155823557</c:v>
+                  <c:v>4.922292876152957</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8843519154560786</c:v>
+                  <c:v>4.9396900559644106</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9114228117384391</c:v>
+                  <c:v>4.9320361519117215</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9320361519117215</c:v>
+                  <c:v>4.9492974061804977</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9320361519117215</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>4.9492974061804977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1495,7 +1488,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1821,15 +1814,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD603AD-80D9-423B-8C8C-99DA0102A422}">
-  <dimension ref="B2:K26"/>
+  <dimension ref="A2:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -1844,24 +1837,24 @@
     <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -1870,767 +1863,863 @@
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <f>COUNTIFS($H$3:$H$25,H3,$I$3:$I$25,I3)</f>
+        <v>1</v>
+      </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1">
+        <v>76155.459422</v>
+      </c>
+      <c r="G3" s="1">
+        <v>76155.459422</v>
+      </c>
+      <c r="H3" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4">
+        <f>LOG10(H3)</f>
+        <v>-6</v>
+      </c>
+      <c r="K3">
+        <f>LOG(G3)</f>
+        <v>4.8817010424305787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <f>COUNTIFS($H$3:$H$25,H4,$I$3:$I$25,I4)</f>
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1">
+        <v>78356.759904999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>78356.759904999999</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4">
+        <f>LOG10(H4)</f>
+        <v>-5</v>
+      </c>
+      <c r="K4">
+        <f>LOG(G4)</f>
+        <v>4.8940764693789482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <f>COUNTIFS($H$3:$H$25,H5,$I$3:$I$25,I5)</f>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1">
+        <v>87784.590473999997</v>
+      </c>
+      <c r="G5" s="1">
+        <v>87784.590473999997</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.7782794100389215E-5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="4">
+        <f>LOG10(H5)</f>
+        <v>-4.75</v>
+      </c>
+      <c r="K5">
+        <f>LOG(G5)</f>
+        <v>4.943418287438563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f>COUNTIFS($H$3:$H$25,H6,$I$3:$I$25,I6)</f>
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>11</v>
       </c>
-      <c r="C3">
-        <v>-5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="str">
-        <f>"Modelo "&amp;C3</f>
-        <v>Modelo -5</v>
-      </c>
-      <c r="F3" s="1">
-        <v>362152.34516500001</v>
-      </c>
-      <c r="G3" s="1">
-        <v>362152.34516500001</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="4" t="e">
-        <f t="shared" ref="J3:J26" si="0">LOG10(H3)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K26" si="1">LOG(G3)</f>
-        <v>5.5588913018767068</v>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1">
+        <v>86143.432597999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>86143.432597999999</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2.4700000000000001E-5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="4">
+        <f>LOG10(H6)</f>
+        <v>-4.6073030467403342</v>
+      </c>
+      <c r="K6">
+        <f>LOG(G6)</f>
+        <v>4.935222173308496</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>-4</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <f>COUNTIFS($H$3:$H$25,H7,$I$3:$I$25,I7)</f>
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="E4" t="str">
-        <f>"Modelo "&amp;C4</f>
-        <v>Modelo -4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>89917.38682</v>
-      </c>
-      <c r="G4" s="1">
-        <v>89917.38682</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>4.9538436769377849</v>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1">
+        <v>83616.671577999994</v>
+      </c>
+      <c r="G7" s="1">
+        <v>83616.671577999994</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3.1622776601683748E-5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="4">
+        <f>LOG10(H7)</f>
+        <v>-4.5000000000000009</v>
+      </c>
+      <c r="K7">
+        <f>LOG(G7)</f>
+        <v>4.922292876152957</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>-3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="str">
-        <f>"Modelo "&amp;C5</f>
-        <v>Modelo -3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>167210.63130499999</v>
-      </c>
-      <c r="G5" s="1">
-        <v>167210.63130499999</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>5.2232638865618188</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f>COUNTIFS($H$3:$H$25,H8,$I$3:$I$25,I8)</f>
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>14</v>
-      </c>
-      <c r="C6">
-        <v>-2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="str">
-        <f>"Modelo "&amp;C6</f>
-        <v>Modelo -2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>73322.092443000001</v>
-      </c>
-      <c r="G6" s="1">
-        <v>73322.092443000001</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>4.8652348502274654</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>-1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="str">
-        <f>"Modelo "&amp;C7</f>
-        <v>Modelo -1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>61850.129827999997</v>
-      </c>
-      <c r="G7" s="1">
-        <v>61850.129827999997</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>4.7913406155823557</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1">
-        <v>76621.723295999996</v>
+        <v>87034.222892999998</v>
       </c>
       <c r="G8" s="1">
-        <v>76621.723295999996</v>
+        <v>87034.222892999998</v>
       </c>
       <c r="H8" s="2">
         <v>1E-4</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="0"/>
+        <f>LOG10(H8)</f>
         <v>-4</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
-        <v>4.8843519154560786</v>
+        <f>LOG(G8)</f>
+        <v>4.9396900559644106</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f>COUNTIFS($H$3:$H$25,H9,$I$3:$I$25,I9)</f>
+        <v>1</v>
+      </c>
       <c r="B9">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1">
-        <v>81549.783374999999</v>
+        <v>85513.789403999996</v>
       </c>
       <c r="G9" s="1">
-        <v>81549.783374999999</v>
+        <v>85513.789403999996</v>
       </c>
       <c r="H9" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="0"/>
+        <f>LOG10(H9)</f>
         <v>-2.5228787452803374</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
-        <v>4.9114228117384391</v>
+        <f>LOG(G9)</f>
+        <v>4.9320361519117215</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f>COUNTIFS($H$3:$H$25,H10,$I$3:$I$25,I10)</f>
+        <v>2</v>
+      </c>
       <c r="B10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1">
-        <v>85513.789403999996</v>
+        <v>88981.025403000007</v>
       </c>
       <c r="G10" s="1">
-        <v>85513.789403999996</v>
+        <v>88981.025403000007</v>
       </c>
       <c r="H10" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>-2.5228787452803374</v>
+        <f>LOG10(H10)</f>
+        <v>-2</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
-        <v>4.9320361519117215</v>
+        <f>LOG(G10)</f>
+        <v>4.9492974061804977</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f>COUNTIFS($H$3:$H$25,H11,$I$3:$I$25,I11)</f>
+        <v>2</v>
+      </c>
       <c r="B11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1">
+        <v>88981.025403000007</v>
+      </c>
+      <c r="G11" s="1">
+        <v>88981.025403000007</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="I11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="1">
-        <v>85513.789403999996</v>
-      </c>
-      <c r="G11" s="1">
-        <v>85513.789403999996</v>
-      </c>
-      <c r="H11" s="2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" s="4">
+        <f>LOG10(H11)</f>
+        <v>-2</v>
+      </c>
+      <c r="K11">
+        <f>LOG(G11)</f>
+        <v>4.9492974061804977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f>COUNTIFS($H$3:$H$25,H12,$I$3:$I$25,I12)</f>
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>-5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="str">
+        <f>"Modelo "&amp;C12</f>
+        <v>Modelo -5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>362152.34516500001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>362152.34516500001</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="4" t="e">
+        <f>LOG10(H12)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K12">
+        <f>LOG(G12)</f>
+        <v>5.5588913018767068</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f>COUNTIFS($H$3:$H$25,H13,$I$3:$I$25,I13)</f>
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>-4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="str">
+        <f>"Modelo "&amp;C13</f>
+        <v>Modelo -4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>89917.38682</v>
+      </c>
+      <c r="G13" s="1">
+        <v>89917.38682</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="4" t="e">
+        <f>LOG10(H13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K13">
+        <f>LOG(G13)</f>
+        <v>4.9538436769377849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f>COUNTIFS($H$3:$H$25,H14,$I$3:$I$25,I14)</f>
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>-3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <f>"Modelo "&amp;C14</f>
+        <v>Modelo -3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>167210.63130499999</v>
+      </c>
+      <c r="G14" s="1">
+        <v>167210.63130499999</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="4" t="e">
+        <f>LOG10(H14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K14">
+        <f>LOG(G14)</f>
+        <v>5.2232638865618188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f>COUNTIFS($H$3:$H$25,H15,$I$3:$I$25,I15)</f>
+        <v>5</v>
+      </c>
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>-2.5228787452803374</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>4.9320361519117215</v>
+      <c r="C15">
+        <v>-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="str">
+        <f>"Modelo "&amp;C15</f>
+        <v>Modelo -2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>73322.092443000001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>73322.092443000001</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="4" t="e">
+        <f>LOG10(H15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K15">
+        <f>LOG(G15)</f>
+        <v>4.8652348502274654</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>23</v>
-      </c>
-      <c r="C12">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f>COUNTIFS($H$3:$H$25,H16,$I$3:$I$25,I16)</f>
         <v>5</v>
       </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1">
-        <v>89619.043890000001</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="K12" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="str">
+        <f>"Modelo "&amp;C16</f>
+        <v>Modelo -1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>61850.129827999997</v>
+      </c>
+      <c r="G16" s="1">
+        <v>61850.129827999997</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="4" t="e">
+        <f>LOG10(H16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16">
+        <f>LOG(G16)</f>
+        <v>4.7913406155823557</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="1">
-        <v>74540.580277999994</v>
-      </c>
-      <c r="G13" s="1">
-        <v>74540.580277999994</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>4.8723927692945646</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f>COUNTIFS($H$3:$H$25,H17,$I$3:$I$25,I17)</f>
+        <v>1</v>
+      </c>
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="C14">
+      <c r="C17">
         <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="1">
-        <v>76297.297957999996</v>
-      </c>
-      <c r="G14" s="1">
-        <v>76297.297957999996</v>
-      </c>
-      <c r="H14" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>4.8825091578407331</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="1">
-        <v>72724.658477000004</v>
-      </c>
-      <c r="G15" s="1">
-        <v>72724.658477000004</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3.1622776601683748E-5</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>-4.5000000000000009</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>4.8616816904292017</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1">
-        <v>70385.352148000005</v>
-      </c>
-      <c r="G16" s="1">
-        <v>70385.352148000005</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1.7782794100389215E-5</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>-4.75</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>4.8474822877899619</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F17" s="1">
-        <v>73119.663283999995</v>
+        <v>76297.297957999996</v>
       </c>
       <c r="G17" s="1">
-        <v>73119.663283999995</v>
+        <v>76297.297957999996</v>
       </c>
       <c r="H17" s="2">
-        <v>2.4700000000000001E-5</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>-4.6073030467403342</v>
+        <f>LOG10(H17)</f>
+        <v>-6</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
-        <v>4.8640341828045841</v>
+        <f>LOG(G17)</f>
+        <v>4.8825091578407331</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f>COUNTIFS($H$3:$H$25,H18,$I$3:$I$25,I18)</f>
+        <v>1</v>
+      </c>
       <c r="B18">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F18" s="1">
-        <v>86143.432597999999</v>
+        <v>74540.580277999994</v>
       </c>
       <c r="G18" s="1">
-        <v>86143.432597999999</v>
+        <v>74540.580277999994</v>
       </c>
       <c r="H18" s="2">
-        <v>2.4700000000000001E-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>-4.6073030467403342</v>
+        <f>LOG10(H18)</f>
+        <v>-5</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
-        <v>4.935222173308496</v>
+        <f>LOG(G18)</f>
+        <v>4.8723927692945646</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f>COUNTIFS($H$3:$H$25,H19,$I$3:$I$25,I19)</f>
+        <v>1</v>
+      </c>
       <c r="B19">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F19" s="1">
-        <v>78356.759904999999</v>
+        <v>70385.352148000005</v>
       </c>
       <c r="G19" s="1">
-        <v>78356.759904999999</v>
+        <v>70385.352148000005</v>
       </c>
       <c r="H19" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>1.7782794100389215E-5</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>-5</v>
+        <f>LOG10(H19)</f>
+        <v>-4.75</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
-        <v>4.8940764693789482</v>
+        <f>LOG(G19)</f>
+        <v>4.8474822877899619</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f>COUNTIFS($H$3:$H$25,H20,$I$3:$I$25,I20)</f>
+        <v>1</v>
+      </c>
       <c r="B20">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F20" s="1">
-        <v>88981.025403000007</v>
+        <v>73119.663283999995</v>
       </c>
       <c r="G20" s="1">
-        <v>88981.025403000007</v>
+        <v>73119.663283999995</v>
       </c>
       <c r="H20" s="2">
-        <v>0.01</v>
+        <v>2.4700000000000001E-5</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="0"/>
-        <v>-2</v>
+        <f>LOG10(H20)</f>
+        <v>-4.6073030467403342</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
-        <v>4.9492974061804977</v>
+        <f>LOG(G20)</f>
+        <v>4.8640341828045841</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f>COUNTIFS($H$3:$H$25,H21,$I$3:$I$25,I21)</f>
+        <v>1</v>
+      </c>
       <c r="B21">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1">
-        <v>87034.222892999998</v>
+        <v>72724.658477000004</v>
       </c>
       <c r="G21" s="1">
-        <v>87034.222892999998</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1E-4</v>
+        <v>72724.658477000004</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3.1622776601683748E-5</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>-4</v>
+        <f>LOG10(H21)</f>
+        <v>-4.5000000000000009</v>
       </c>
       <c r="K21">
-        <f t="shared" si="1"/>
-        <v>4.9396900559644106</v>
+        <f>LOG(G21)</f>
+        <v>4.8616816904292017</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f>COUNTIFS($H$3:$H$25,H22,$I$3:$I$25,I22)</f>
+        <v>1</v>
+      </c>
       <c r="B22">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F22" s="1">
-        <v>83616.671577999994</v>
+        <v>76621.723295999996</v>
       </c>
       <c r="G22" s="1">
-        <v>83616.671577999994</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3.1622776601683748E-5</v>
+        <v>76621.723295999996</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1E-4</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="0"/>
-        <v>-4.5000000000000009</v>
+        <f>LOG10(H22)</f>
+        <v>-4</v>
       </c>
       <c r="K22">
-        <f t="shared" si="1"/>
-        <v>4.922292876152957</v>
+        <f>LOG(G22)</f>
+        <v>4.8843519154560786</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f>COUNTIFS($H$3:$H$25,H23,$I$3:$I$25,I23)</f>
+        <v>1</v>
+      </c>
       <c r="B23">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F23" s="1">
-        <v>87784.590473999997</v>
+        <v>81549.783374999999</v>
       </c>
       <c r="G23" s="1">
-        <v>87784.590473999997</v>
+        <v>81549.783374999999</v>
       </c>
       <c r="H23" s="2">
-        <v>1.7782794100389215E-5</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="0"/>
-        <v>-4.75</v>
+        <f>LOG10(H23)</f>
+        <v>-2.5228787452803374</v>
       </c>
       <c r="K23">
-        <f t="shared" si="1"/>
-        <v>4.943418287438563</v>
+        <f>LOG(G23)</f>
+        <v>4.9114228117384391</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f>COUNTIFS($H$3:$H$25,H24,$I$3:$I$25,I24)</f>
+        <v>2</v>
+      </c>
       <c r="B24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="F24" s="1">
+        <v>89619.043890000001</v>
+      </c>
       <c r="G24" s="1">
-        <v>60000</v>
+        <v>89619.043890000001</v>
       </c>
       <c r="H24" s="2">
-        <v>9.9999999999999995E-7</v>
+        <v>0.01</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="0"/>
-        <v>-6</v>
+        <f>LOG10(H24)</f>
+        <v>-2</v>
       </c>
       <c r="K24">
-        <f t="shared" si="1"/>
-        <v>4.7781512503836439</v>
+        <f>LOG(G24)</f>
+        <v>4.9524003062863295</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f>COUNTIFS($H$3:$H$25,H25,$I$3:$I$25,I25)</f>
+        <v>2</v>
+      </c>
       <c r="B25">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -2638,137 +2727,107 @@
       <c r="E25" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1">
+        <v>89619.043890000001</v>
+      </c>
       <c r="G25" s="1">
-        <v>88981.025403000007</v>
+        <v>89619.043890000001</v>
       </c>
       <c r="H25" s="2">
         <v>0.01</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="0"/>
+        <f>LOG10(H25)</f>
         <v>-2</v>
       </c>
       <c r="K25">
-        <f t="shared" si="1"/>
-        <v>4.9492974061804977</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>24</v>
-      </c>
-      <c r="C26">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1">
-        <v>89619.043890000001</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="I26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="4">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="1"/>
+        <f>LOG(G25)</f>
         <v>4.9524003062863295</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:K26" xr:uid="{7AD603AD-80D9-423B-8C8C-99DA0102A422}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K26">
-      <sortCondition ref="C2:C26"/>
+  <autoFilter ref="B2:K25" xr:uid="{7AD603AD-80D9-423B-8C8C-99DA0102A422}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K25">
+      <sortCondition ref="B2:B25"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:K21">
-    <sortCondition ref="E3:E21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:K20">
+    <sortCondition ref="E3:E20"/>
   </sortState>
-  <conditionalFormatting sqref="P9:P18">
-    <cfRule type="top10" dxfId="23" priority="24" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="Q37:Q40">
+    <cfRule type="top10" dxfId="23" priority="18" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q9:Q18">
-    <cfRule type="top10" dxfId="22" priority="21" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="Q32:Q35">
+    <cfRule type="top10" dxfId="22" priority="17" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q38:Q41">
-    <cfRule type="top10" dxfId="21" priority="18" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="P32:P35">
+    <cfRule type="top10" dxfId="21" priority="14" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q33:Q36">
-    <cfRule type="top10" dxfId="20" priority="17" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="P37:P40">
+    <cfRule type="top10" dxfId="20" priority="13" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P33:P36">
-    <cfRule type="top10" dxfId="19" priority="14" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="V37:V40">
+    <cfRule type="top10" dxfId="19" priority="12" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P38:P41">
-    <cfRule type="top10" dxfId="18" priority="13" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="V32:V35">
+    <cfRule type="top10" dxfId="18" priority="11" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V38:V41">
-    <cfRule type="top10" dxfId="17" priority="12" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="U32:U35">
+    <cfRule type="top10" dxfId="17" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V33:V36">
-    <cfRule type="top10" dxfId="16" priority="11" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="U37:U40">
+    <cfRule type="top10" dxfId="16" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U33:U36">
-    <cfRule type="top10" dxfId="15" priority="8" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="Z37:Z40">
+    <cfRule type="top10" dxfId="15" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U38:U41">
-    <cfRule type="top10" dxfId="14" priority="7" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="Z32:Z35">
+    <cfRule type="top10" dxfId="14" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z38:Z41">
-    <cfRule type="top10" dxfId="13" priority="6" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="Y32:Y35">
+    <cfRule type="top10" dxfId="13" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z33:Z36">
-    <cfRule type="top10" dxfId="12" priority="5" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="Y37:Y40">
+    <cfRule type="top10" dxfId="12" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y33:Y36">
-    <cfRule type="top10" dxfId="11" priority="2" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="P21">
+    <cfRule type="top10" dxfId="11" priority="30" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y38:Y41">
-    <cfRule type="top10" dxfId="10" priority="1" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P22">
-    <cfRule type="top10" dxfId="9" priority="30" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
-    <cfRule type="top10" dxfId="8" priority="31" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="Q21">
+    <cfRule type="top10" dxfId="10" priority="31" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5:P7">
-    <cfRule type="top10" dxfId="7" priority="32" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="32" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:Q7">
-    <cfRule type="top10" dxfId="6" priority="33" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="33" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q29:Q31">
-    <cfRule type="top10" dxfId="5" priority="34" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="Q28:Q30">
+    <cfRule type="top10" dxfId="7" priority="34" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P29:P31">
-    <cfRule type="top10" dxfId="4" priority="35" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="P28:P30">
+    <cfRule type="top10" dxfId="6" priority="35" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V29:V31">
-    <cfRule type="top10" dxfId="3" priority="36" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="V28:V30">
+    <cfRule type="top10" dxfId="5" priority="36" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U29:U31">
-    <cfRule type="top10" dxfId="2" priority="37" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="U28:U30">
+    <cfRule type="top10" dxfId="4" priority="37" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z29:Z31">
-    <cfRule type="top10" dxfId="1" priority="38" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="Z28:Z30">
+    <cfRule type="top10" dxfId="3" priority="38" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y29:Y31">
-    <cfRule type="top10" dxfId="0" priority="39" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="Y28:Y30">
+    <cfRule type="top10" dxfId="2" priority="39" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9:P17">
+    <cfRule type="top10" dxfId="1" priority="40" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9:Q17">
+    <cfRule type="top10" dxfId="0" priority="42" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Ox Metrics GVAR/Ox Scripts/mat_files/Result_Matrix/_MAIN/Relacao de ensaios.xlsx
+++ b/Ox Metrics GVAR/Ox Scripts/mat_files/Result_Matrix/_MAIN/Relacao de ensaios.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teo\Documents\GitHub\Tese\Ox Metrics GVAR\Ox Scripts\mat_files\Result_Matrix\_MAIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7B60E2-4811-4F72-A6DB-E264D0DB0C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29C8DA0-E4D9-4372-B583-9DE52222CF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACEF690F-2B36-4DC1-A006-5C7891A11F01}"/>
+    <workbookView xWindow="30495" yWindow="1275" windowWidth="27075" windowHeight="13125" activeTab="2" xr2:uid="{ACEF690F-2B36-4DC1-A006-5C7891A11F01}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$B$2:$K$25</definedName>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
   <si>
     <t>PCA</t>
   </si>
@@ -148,6 +150,165 @@
   </si>
   <si>
     <t>Log(erro)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   \textbf{Model} &amp; \textbf{Model Type} &amp; \textbf{Seasonal Dummies} &amp; \textbf{IIS pvalue} \\ \hline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GVAR-IIS\_m17 &amp; GVAR-IIS &amp; No &amp; $10^{-6.00}$ \\</t>
+  </si>
+  <si>
+    <t>GVAR-IIS\_m12 &amp; GVAR-IIS &amp; No &amp; $10^{-5.00}$ \\</t>
+  </si>
+  <si>
+    <t>GVAR-IIS\_m16 &amp; GVAR-IIS &amp; No &amp; $10^{-4.75}$ \\</t>
+  </si>
+  <si>
+    <t>GVAR-IIS\_m11 &amp; GVAR-IIS &amp; No &amp; $10^{-4.61}$ \\</t>
+  </si>
+  <si>
+    <t>GVAR-IIS\_m15 &amp; GVAR-IIS &amp; No &amp; $10^{-4.50}$ \\</t>
+  </si>
+  <si>
+    <t>GVAR-IIS\_m14 &amp; GVAR-IIS &amp; No &amp; $10^{-4.00}$ \\</t>
+  </si>
+  <si>
+    <t>GVAR-IIS\_m3 &amp; GVAR-IIS &amp; No &amp; $10^{-2.52}$ \\</t>
+  </si>
+  <si>
+    <t>GVAR-IIS\_m13 &amp; GVAR-IIS &amp; No &amp; $10^{-2.00}$ \\</t>
+  </si>
+  <si>
+    <t>% GVAR-IIS</t>
+  </si>
+  <si>
+    <t>MODELO 18 &amp; GVAR-IIS model &amp; No &amp; $10^{-2.00}$ \\</t>
+  </si>
+  <si>
+    <t>&amp; AR(1) &amp; No &amp; - \\</t>
+  </si>
+  <si>
+    <t>AR13 &amp; AR(13) &amp; No &amp; - \\</t>
+  </si>
+  <si>
+    <t>&amp; PCA &amp; No &amp;  - \\</t>
+  </si>
+  <si>
+    <t>VECM &amp; VECM &amp; No &amp; - \\</t>
+  </si>
+  <si>
+    <t>GVAR &amp; Classical GVAR &amp; Yes &amp; - \\</t>
+  </si>
+  <si>
+    <t>GVAR-IIS\_m7 &amp; GVAR-IIS &amp; Yes &amp; $10^{-6.00}$ \\</t>
+  </si>
+  <si>
+    <t>GVAR-IIS\_m6 &amp; GVAR-IIS &amp; Yes &amp; $10^{-5.00}$ \\</t>
+  </si>
+  <si>
+    <t>GVAR-IIS\_m9 &amp; GVAR-IIS  &amp; Yes &amp; $10^{-4.75}$ \\</t>
+  </si>
+  <si>
+    <t>GVAR-IIS\_m10 &amp; GVAR-IIS &amp; Yes &amp; $10^{-4.61}$ \\</t>
+  </si>
+  <si>
+    <t>GVAR-IIS\_m8 &amp; GVAR-IIS  &amp; Yes &amp; $10^{-4.50}$ \\</t>
+  </si>
+  <si>
+    <t>GVAR-IIS\_m1 &amp; GVAR-IIS  &amp; Yes &amp; $10^{-4.00}$ \\</t>
+  </si>
+  <si>
+    <t>GVAR-IIS\_m2 &amp; GVAR-IIS &amp; Yes &amp; $10^{-2.52}$ \\</t>
+  </si>
+  <si>
+    <t>GVAR-IIS\_m5 &amp; GVAR-IIS &amp; Yes &amp; $10^{-2.00}$ \\</t>
+  </si>
+  <si>
+    <t>MODELO 19 &amp; GVAR-IIS model &amp; Yes &amp; $10^{-2.00}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \hline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    \end{tabular}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    \caption{Forecasting Models}</t>
+  </si>
+  <si>
+    <t>GVAR-IIS_m17</t>
+  </si>
+  <si>
+    <t>GVAR-IIS_m12</t>
+  </si>
+  <si>
+    <t>GVAR-IIS_m16</t>
+  </si>
+  <si>
+    <t>GVAR-IIS_m11</t>
+  </si>
+  <si>
+    <t>GVAR-IIS_m15</t>
+  </si>
+  <si>
+    <t>GVAR-IIS_m14</t>
+  </si>
+  <si>
+    <t>GVAR-IIS_m3</t>
+  </si>
+  <si>
+    <t>GVAR-IIS_m13</t>
+  </si>
+  <si>
+    <t>GVAR-IIS_m18</t>
+  </si>
+  <si>
+    <t>GVAR-IIS_m7</t>
+  </si>
+  <si>
+    <t>GVAR-IIS_m6</t>
+  </si>
+  <si>
+    <t>GVAR-IIS_m9</t>
+  </si>
+  <si>
+    <t>GVAR-IIS_m10</t>
+  </si>
+  <si>
+    <t>GVAR-IIS_m8</t>
+  </si>
+  <si>
+    <t>GVAR-IIS_m1</t>
+  </si>
+  <si>
+    <t>GVAR-IIS_m2</t>
+  </si>
+  <si>
+    <t>GVAR-IIS_m5</t>
+  </si>
+  <si>
+    <t>GVAR-IIS_m19</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>RMSE_Adm</t>
+  </si>
+  <si>
+    <t>RMSE_Des</t>
+  </si>
+  <si>
+    <t>RMSE_Net</t>
+  </si>
+  <si>
+    <t>MAE_Adm</t>
+  </si>
+  <si>
+    <t>MAE_Des</t>
+  </si>
+  <si>
+    <t>MAE_Net</t>
   </si>
 </sst>
 </file>
@@ -176,12 +337,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -197,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -206,6 +373,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1816,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD603AD-80D9-423B-8C8C-99DA0102A422}">
   <dimension ref="A2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,7 +2039,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <f>COUNTIFS($H$3:$H$25,H3,$I$3:$I$25,I3)</f>
+        <f t="shared" ref="A3:A25" si="0">COUNTIFS($H$3:$H$25,H3,$I$3:$I$25,I3)</f>
         <v>1</v>
       </c>
       <c r="B3">
@@ -1899,17 +2067,17 @@
         <v>13</v>
       </c>
       <c r="J3" s="4">
-        <f>LOG10(H3)</f>
+        <f t="shared" ref="J3:J25" si="1">LOG10(H3)</f>
         <v>-6</v>
       </c>
       <c r="K3">
-        <f>LOG(G3)</f>
+        <f t="shared" ref="K3:K25" si="2">LOG(G3)</f>
         <v>4.8817010424305787</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f>COUNTIFS($H$3:$H$25,H4,$I$3:$I$25,I4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B4">
@@ -1937,17 +2105,17 @@
         <v>13</v>
       </c>
       <c r="J4" s="4">
-        <f>LOG10(H4)</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="K4">
-        <f>LOG(G4)</f>
+        <f t="shared" si="2"/>
         <v>4.8940764693789482</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <f>COUNTIFS($H$3:$H$25,H5,$I$3:$I$25,I5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B5">
@@ -1975,17 +2143,17 @@
         <v>13</v>
       </c>
       <c r="J5" s="4">
-        <f>LOG10(H5)</f>
+        <f t="shared" si="1"/>
         <v>-4.75</v>
       </c>
       <c r="K5">
-        <f>LOG(G5)</f>
+        <f t="shared" si="2"/>
         <v>4.943418287438563</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <f>COUNTIFS($H$3:$H$25,H6,$I$3:$I$25,I6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B6">
@@ -2013,17 +2181,17 @@
         <v>13</v>
       </c>
       <c r="J6" s="4">
-        <f>LOG10(H6)</f>
+        <f t="shared" si="1"/>
         <v>-4.6073030467403342</v>
       </c>
       <c r="K6">
-        <f>LOG(G6)</f>
+        <f t="shared" si="2"/>
         <v>4.935222173308496</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <f>COUNTIFS($H$3:$H$25,H7,$I$3:$I$25,I7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B7">
@@ -2051,17 +2219,17 @@
         <v>13</v>
       </c>
       <c r="J7" s="4">
-        <f>LOG10(H7)</f>
+        <f t="shared" si="1"/>
         <v>-4.5000000000000009</v>
       </c>
       <c r="K7">
-        <f>LOG(G7)</f>
+        <f t="shared" si="2"/>
         <v>4.922292876152957</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f>COUNTIFS($H$3:$H$25,H8,$I$3:$I$25,I8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B8">
@@ -2089,17 +2257,17 @@
         <v>13</v>
       </c>
       <c r="J8" s="4">
-        <f>LOG10(H8)</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="K8">
-        <f>LOG(G8)</f>
+        <f t="shared" si="2"/>
         <v>4.9396900559644106</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f>COUNTIFS($H$3:$H$25,H9,$I$3:$I$25,I9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B9">
@@ -2127,17 +2295,17 @@
         <v>13</v>
       </c>
       <c r="J9" s="4">
-        <f>LOG10(H9)</f>
+        <f t="shared" si="1"/>
         <v>-2.5228787452803374</v>
       </c>
       <c r="K9">
-        <f>LOG(G9)</f>
+        <f t="shared" si="2"/>
         <v>4.9320361519117215</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <f>COUNTIFS($H$3:$H$25,H10,$I$3:$I$25,I10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B10">
@@ -2165,17 +2333,17 @@
         <v>13</v>
       </c>
       <c r="J10" s="4">
-        <f>LOG10(H10)</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="K10">
-        <f>LOG(G10)</f>
+        <f t="shared" si="2"/>
         <v>4.9492974061804977</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <f>COUNTIFS($H$3:$H$25,H11,$I$3:$I$25,I11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B11">
@@ -2203,17 +2371,17 @@
         <v>13</v>
       </c>
       <c r="J11" s="4">
-        <f>LOG10(H11)</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="K11">
-        <f>LOG(G11)</f>
+        <f t="shared" si="2"/>
         <v>4.9492974061804977</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <f>COUNTIFS($H$3:$H$25,H12,$I$3:$I$25,I12)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B12">
@@ -2242,17 +2410,17 @@
         <v>10</v>
       </c>
       <c r="J12" s="4" t="e">
-        <f>LOG10(H12)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="K12">
-        <f>LOG(G12)</f>
+        <f t="shared" si="2"/>
         <v>5.5588913018767068</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <f>COUNTIFS($H$3:$H$25,H13,$I$3:$I$25,I13)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13">
@@ -2281,17 +2449,17 @@
         <v>10</v>
       </c>
       <c r="J13" s="4" t="e">
-        <f>LOG10(H13)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="K13">
-        <f>LOG(G13)</f>
+        <f t="shared" si="2"/>
         <v>4.9538436769377849</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <f>COUNTIFS($H$3:$H$25,H14,$I$3:$I$25,I14)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B14">
@@ -2320,17 +2488,17 @@
         <v>10</v>
       </c>
       <c r="J14" s="4" t="e">
-        <f>LOG10(H14)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="K14">
-        <f>LOG(G14)</f>
+        <f t="shared" si="2"/>
         <v>5.2232638865618188</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <f>COUNTIFS($H$3:$H$25,H15,$I$3:$I$25,I15)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B15">
@@ -2359,17 +2527,17 @@
         <v>10</v>
       </c>
       <c r="J15" s="4" t="e">
-        <f>LOG10(H15)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="K15">
-        <f>LOG(G15)</f>
+        <f t="shared" si="2"/>
         <v>4.8652348502274654</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <f>COUNTIFS($H$3:$H$25,H16,$I$3:$I$25,I16)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B16">
@@ -2398,17 +2566,17 @@
         <v>10</v>
       </c>
       <c r="J16" s="4" t="e">
-        <f>LOG10(H16)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="K16">
-        <f>LOG(G16)</f>
+        <f t="shared" si="2"/>
         <v>4.7913406155823557</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <f>COUNTIFS($H$3:$H$25,H17,$I$3:$I$25,I17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B17">
@@ -2436,17 +2604,17 @@
         <v>12</v>
       </c>
       <c r="J17" s="4">
-        <f>LOG10(H17)</f>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
       <c r="K17">
-        <f>LOG(G17)</f>
+        <f t="shared" si="2"/>
         <v>4.8825091578407331</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <f>COUNTIFS($H$3:$H$25,H18,$I$3:$I$25,I18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B18">
@@ -2474,17 +2642,17 @@
         <v>12</v>
       </c>
       <c r="J18" s="4">
-        <f>LOG10(H18)</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="K18">
-        <f>LOG(G18)</f>
+        <f t="shared" si="2"/>
         <v>4.8723927692945646</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <f>COUNTIFS($H$3:$H$25,H19,$I$3:$I$25,I19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B19">
@@ -2512,17 +2680,17 @@
         <v>12</v>
       </c>
       <c r="J19" s="4">
-        <f>LOG10(H19)</f>
+        <f t="shared" si="1"/>
         <v>-4.75</v>
       </c>
       <c r="K19">
-        <f>LOG(G19)</f>
+        <f t="shared" si="2"/>
         <v>4.8474822877899619</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <f>COUNTIFS($H$3:$H$25,H20,$I$3:$I$25,I20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B20">
@@ -2550,17 +2718,17 @@
         <v>12</v>
       </c>
       <c r="J20" s="4">
-        <f>LOG10(H20)</f>
+        <f t="shared" si="1"/>
         <v>-4.6073030467403342</v>
       </c>
       <c r="K20">
-        <f>LOG(G20)</f>
+        <f t="shared" si="2"/>
         <v>4.8640341828045841</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <f>COUNTIFS($H$3:$H$25,H21,$I$3:$I$25,I21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B21">
@@ -2588,17 +2756,17 @@
         <v>12</v>
       </c>
       <c r="J21" s="4">
-        <f>LOG10(H21)</f>
+        <f t="shared" si="1"/>
         <v>-4.5000000000000009</v>
       </c>
       <c r="K21">
-        <f>LOG(G21)</f>
+        <f t="shared" si="2"/>
         <v>4.8616816904292017</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <f>COUNTIFS($H$3:$H$25,H22,$I$3:$I$25,I22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B22">
@@ -2626,17 +2794,17 @@
         <v>12</v>
       </c>
       <c r="J22" s="4">
-        <f>LOG10(H22)</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="K22">
-        <f>LOG(G22)</f>
+        <f t="shared" si="2"/>
         <v>4.8843519154560786</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <f>COUNTIFS($H$3:$H$25,H23,$I$3:$I$25,I23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B23">
@@ -2664,17 +2832,17 @@
         <v>12</v>
       </c>
       <c r="J23" s="4">
-        <f>LOG10(H23)</f>
+        <f t="shared" si="1"/>
         <v>-2.5228787452803374</v>
       </c>
       <c r="K23">
-        <f>LOG(G23)</f>
+        <f t="shared" si="2"/>
         <v>4.9114228117384391</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <f>COUNTIFS($H$3:$H$25,H24,$I$3:$I$25,I24)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B24">
@@ -2702,17 +2870,17 @@
         <v>12</v>
       </c>
       <c r="J24" s="4">
-        <f>LOG10(H24)</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="K24">
-        <f>LOG(G24)</f>
+        <f t="shared" si="2"/>
         <v>4.9524003062863295</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <f>COUNTIFS($H$3:$H$25,H25,$I$3:$I$25,I25)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B25">
@@ -2740,11 +2908,11 @@
         <v>12</v>
       </c>
       <c r="J25" s="4">
-        <f>LOG10(H25)</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="K25">
-        <f>LOG(G25)</f>
+        <f t="shared" si="2"/>
         <v>4.9524003062863295</v>
       </c>
     </row>
@@ -2833,4 +3001,703 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AD115F-2B63-405E-A771-E3192D685F6A}">
+  <dimension ref="E6:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C01D3B4-33DD-4718-A74B-818A7E652163}">
+  <dimension ref="C1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2">
+        <v>1215.0544150000001</v>
+      </c>
+      <c r="E2">
+        <v>1036.4390699999999</v>
+      </c>
+      <c r="F2">
+        <v>1335.1694680000001</v>
+      </c>
+      <c r="G2">
+        <v>352.87749700000001</v>
+      </c>
+      <c r="H2">
+        <v>314.519295</v>
+      </c>
+      <c r="I2">
+        <v>442.11035600000002</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3">
+        <v>1232.070281</v>
+      </c>
+      <c r="E3">
+        <v>1027.2652210000001</v>
+      </c>
+      <c r="F3">
+        <v>1348.3836960000001</v>
+      </c>
+      <c r="G3">
+        <v>356.96097700000001</v>
+      </c>
+      <c r="H3">
+        <v>313.82258100000001</v>
+      </c>
+      <c r="I3">
+        <v>450.32104700000002</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4">
+        <v>1255.888318</v>
+      </c>
+      <c r="E4">
+        <v>1032.684555</v>
+      </c>
+      <c r="F4">
+        <v>1364.1730010000001</v>
+      </c>
+      <c r="G4">
+        <v>358.35177599999997</v>
+      </c>
+      <c r="H4">
+        <v>314.114959</v>
+      </c>
+      <c r="I4">
+        <v>446.22387300000003</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5">
+        <v>1234.3286889999999</v>
+      </c>
+      <c r="E5">
+        <v>1031.9226799999999</v>
+      </c>
+      <c r="F5">
+        <v>1345.182409</v>
+      </c>
+      <c r="G5">
+        <v>355.52461899999997</v>
+      </c>
+      <c r="H5">
+        <v>311.124619</v>
+      </c>
+      <c r="I5">
+        <v>444.18430499999999</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6">
+        <v>1274.6322580000001</v>
+      </c>
+      <c r="E6">
+        <v>1058.55537</v>
+      </c>
+      <c r="F6">
+        <v>1396.2184360000001</v>
+      </c>
+      <c r="G6">
+        <v>355.49597799999998</v>
+      </c>
+      <c r="H6">
+        <v>312.098095</v>
+      </c>
+      <c r="I6">
+        <v>446.62556599999999</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7">
+        <v>1292.539929</v>
+      </c>
+      <c r="E7">
+        <v>1045.3666559999999</v>
+      </c>
+      <c r="F7">
+        <v>1332.107606</v>
+      </c>
+      <c r="G7">
+        <v>363.705465</v>
+      </c>
+      <c r="H7">
+        <v>312.27824399999997</v>
+      </c>
+      <c r="I7">
+        <v>443.50512700000002</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8">
+        <v>1221.4552020000001</v>
+      </c>
+      <c r="E8">
+        <v>1077.7243189999999</v>
+      </c>
+      <c r="F8">
+        <v>1370.4652000000001</v>
+      </c>
+      <c r="G8">
+        <v>352.41253599999999</v>
+      </c>
+      <c r="H8">
+        <v>314.95902000000001</v>
+      </c>
+      <c r="I8">
+        <v>444.63044300000001</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <v>1235.8342869999999</v>
+      </c>
+      <c r="E9">
+        <v>1124.181163</v>
+      </c>
+      <c r="F9">
+        <v>1385.0216419999999</v>
+      </c>
+      <c r="G9">
+        <v>359.01748500000002</v>
+      </c>
+      <c r="H9">
+        <v>318.21470199999999</v>
+      </c>
+      <c r="I9">
+        <v>448.66319099999998</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10">
+        <v>1235.8342869999999</v>
+      </c>
+      <c r="E10">
+        <v>1124.181163</v>
+      </c>
+      <c r="F10">
+        <v>1385.0216419999999</v>
+      </c>
+      <c r="G10">
+        <v>359.01748500000002</v>
+      </c>
+      <c r="H10">
+        <v>318.21470199999999</v>
+      </c>
+      <c r="I10">
+        <v>448.66319099999998</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1913.6498919999999</v>
+      </c>
+      <c r="E13">
+        <v>1674.9475689999999</v>
+      </c>
+      <c r="F13">
+        <v>2494.2472360000002</v>
+      </c>
+      <c r="G13">
+        <v>526.06990699999994</v>
+      </c>
+      <c r="H13">
+        <v>489.57536900000002</v>
+      </c>
+      <c r="I13">
+        <v>751.64623200000005</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1181.7724069999999</v>
+      </c>
+      <c r="E14">
+        <v>912.10350000000005</v>
+      </c>
+      <c r="F14">
+        <v>1278.030542</v>
+      </c>
+      <c r="G14">
+        <v>335.18358599999999</v>
+      </c>
+      <c r="H14">
+        <v>290.99593499999997</v>
+      </c>
+      <c r="I14">
+        <v>420.988721</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1377.109561</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1170.8371259999999</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1404.78153</v>
+      </c>
+      <c r="G15" s="6">
+        <v>419.59272600000003</v>
+      </c>
+      <c r="H15" s="6">
+        <v>387.98210999999998</v>
+      </c>
+      <c r="I15" s="6">
+        <v>512.85629400000005</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16">
+        <v>1168.6909089999999</v>
+      </c>
+      <c r="E16">
+        <v>1071.4768549999999</v>
+      </c>
+      <c r="F16">
+        <v>1249.707539</v>
+      </c>
+      <c r="G16">
+        <v>349.99653799999999</v>
+      </c>
+      <c r="H16">
+        <v>322.51881600000002</v>
+      </c>
+      <c r="I16">
+        <v>438.01664799999998</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17">
+        <v>1173.8298179999999</v>
+      </c>
+      <c r="E17">
+        <v>1015.106357</v>
+      </c>
+      <c r="F17">
+        <v>1239.8141680000001</v>
+      </c>
+      <c r="G17">
+        <v>352.81978800000002</v>
+      </c>
+      <c r="H17">
+        <v>313.653076</v>
+      </c>
+      <c r="I17">
+        <v>434.83596699999998</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18">
+        <v>1120.092989</v>
+      </c>
+      <c r="E18">
+        <v>1096.022383</v>
+      </c>
+      <c r="F18">
+        <v>1233.8968589999999</v>
+      </c>
+      <c r="G18">
+        <v>341.48583000000002</v>
+      </c>
+      <c r="H18">
+        <v>318.57320800000002</v>
+      </c>
+      <c r="I18">
+        <v>426.38234199999999</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19">
+        <v>1124.6226959999999</v>
+      </c>
+      <c r="E19">
+        <v>1107.267595</v>
+      </c>
+      <c r="F19">
+        <v>1271.044891</v>
+      </c>
+      <c r="G19">
+        <v>340.44491699999998</v>
+      </c>
+      <c r="H19">
+        <v>319.81561699999997</v>
+      </c>
+      <c r="I19">
+        <v>430.906296</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20">
+        <v>1122.443501</v>
+      </c>
+      <c r="E20">
+        <v>1013.217721</v>
+      </c>
+      <c r="F20">
+        <v>1219.1615549999999</v>
+      </c>
+      <c r="G20">
+        <v>341.76014199999997</v>
+      </c>
+      <c r="H20">
+        <v>310.67460699999998</v>
+      </c>
+      <c r="I20">
+        <v>426.70223099999998</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21">
+        <v>1136.1899040000001</v>
+      </c>
+      <c r="E21">
+        <v>1015.67408</v>
+      </c>
+      <c r="F21">
+        <v>1220.2277349999999</v>
+      </c>
+      <c r="G21">
+        <v>343.01568600000002</v>
+      </c>
+      <c r="H21">
+        <v>310.77473400000002</v>
+      </c>
+      <c r="I21">
+        <v>427.55171000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22">
+        <v>1159.168038</v>
+      </c>
+      <c r="E22">
+        <v>1189.8444950000001</v>
+      </c>
+      <c r="F22">
+        <v>1334.4151589999999</v>
+      </c>
+      <c r="G22">
+        <v>352.42785199999997</v>
+      </c>
+      <c r="H22">
+        <v>321.47627499999999</v>
+      </c>
+      <c r="I22">
+        <v>438.28246899999999</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23">
+        <v>1163.366747</v>
+      </c>
+      <c r="E23">
+        <v>1201.6673619999999</v>
+      </c>
+      <c r="F23">
+        <v>1367.042733</v>
+      </c>
+      <c r="G23">
+        <v>354.66926000000001</v>
+      </c>
+      <c r="H23">
+        <v>328.08905099999998</v>
+      </c>
+      <c r="I23">
+        <v>446.71303999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24">
+        <v>1163.366747</v>
+      </c>
+      <c r="E24">
+        <v>1201.6673619999999</v>
+      </c>
+      <c r="F24">
+        <v>1367.042733</v>
+      </c>
+      <c r="G24">
+        <v>354.66926000000001</v>
+      </c>
+      <c r="H24">
+        <v>328.08905099999998</v>
+      </c>
+      <c r="I24">
+        <v>446.71303999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Ox Metrics GVAR/Ox Scripts/mat_files/Result_Matrix/_MAIN/Relacao de ensaios.xlsx
+++ b/Ox Metrics GVAR/Ox Scripts/mat_files/Result_Matrix/_MAIN/Relacao de ensaios.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teo\Documents\GitHub\Tese\Ox Metrics GVAR\Ox Scripts\mat_files\Result_Matrix\_MAIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29C8DA0-E4D9-4372-B583-9DE52222CF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB39D82-B3E4-4BAD-910F-B7D34B64E015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30495" yWindow="1275" windowWidth="27075" windowHeight="13125" activeTab="2" xr2:uid="{ACEF690F-2B36-4DC1-A006-5C7891A11F01}"/>
+    <workbookView xWindow="30495" yWindow="1275" windowWidth="27075" windowHeight="13125" xr2:uid="{ACEF690F-2B36-4DC1-A006-5C7891A11F01}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId3"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="MCS" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$B$2:$K$25</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
   <si>
     <t>PCA</t>
   </si>
@@ -140,102 +140,12 @@
     <t>Order</t>
   </si>
   <si>
-    <t>Model Number</t>
-  </si>
-  <si>
-    <t>Log10(IIS)</t>
-  </si>
-  <si>
     <t>TTT</t>
   </si>
   <si>
     <t>Log(erro)</t>
   </si>
   <si>
-    <t xml:space="preserve">   \textbf{Model} &amp; \textbf{Model Type} &amp; \textbf{Seasonal Dummies} &amp; \textbf{IIS pvalue} \\ \hline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        GVAR-IIS\_m17 &amp; GVAR-IIS &amp; No &amp; $10^{-6.00}$ \\</t>
-  </si>
-  <si>
-    <t>GVAR-IIS\_m12 &amp; GVAR-IIS &amp; No &amp; $10^{-5.00}$ \\</t>
-  </si>
-  <si>
-    <t>GVAR-IIS\_m16 &amp; GVAR-IIS &amp; No &amp; $10^{-4.75}$ \\</t>
-  </si>
-  <si>
-    <t>GVAR-IIS\_m11 &amp; GVAR-IIS &amp; No &amp; $10^{-4.61}$ \\</t>
-  </si>
-  <si>
-    <t>GVAR-IIS\_m15 &amp; GVAR-IIS &amp; No &amp; $10^{-4.50}$ \\</t>
-  </si>
-  <si>
-    <t>GVAR-IIS\_m14 &amp; GVAR-IIS &amp; No &amp; $10^{-4.00}$ \\</t>
-  </si>
-  <si>
-    <t>GVAR-IIS\_m3 &amp; GVAR-IIS &amp; No &amp; $10^{-2.52}$ \\</t>
-  </si>
-  <si>
-    <t>GVAR-IIS\_m13 &amp; GVAR-IIS &amp; No &amp; $10^{-2.00}$ \\</t>
-  </si>
-  <si>
-    <t>% GVAR-IIS</t>
-  </si>
-  <si>
-    <t>MODELO 18 &amp; GVAR-IIS model &amp; No &amp; $10^{-2.00}$ \\</t>
-  </si>
-  <si>
-    <t>&amp; AR(1) &amp; No &amp; - \\</t>
-  </si>
-  <si>
-    <t>AR13 &amp; AR(13) &amp; No &amp; - \\</t>
-  </si>
-  <si>
-    <t>&amp; PCA &amp; No &amp;  - \\</t>
-  </si>
-  <si>
-    <t>VECM &amp; VECM &amp; No &amp; - \\</t>
-  </si>
-  <si>
-    <t>GVAR &amp; Classical GVAR &amp; Yes &amp; - \\</t>
-  </si>
-  <si>
-    <t>GVAR-IIS\_m7 &amp; GVAR-IIS &amp; Yes &amp; $10^{-6.00}$ \\</t>
-  </si>
-  <si>
-    <t>GVAR-IIS\_m6 &amp; GVAR-IIS &amp; Yes &amp; $10^{-5.00}$ \\</t>
-  </si>
-  <si>
-    <t>GVAR-IIS\_m9 &amp; GVAR-IIS  &amp; Yes &amp; $10^{-4.75}$ \\</t>
-  </si>
-  <si>
-    <t>GVAR-IIS\_m10 &amp; GVAR-IIS &amp; Yes &amp; $10^{-4.61}$ \\</t>
-  </si>
-  <si>
-    <t>GVAR-IIS\_m8 &amp; GVAR-IIS  &amp; Yes &amp; $10^{-4.50}$ \\</t>
-  </si>
-  <si>
-    <t>GVAR-IIS\_m1 &amp; GVAR-IIS  &amp; Yes &amp; $10^{-4.00}$ \\</t>
-  </si>
-  <si>
-    <t>GVAR-IIS\_m2 &amp; GVAR-IIS &amp; Yes &amp; $10^{-2.52}$ \\</t>
-  </si>
-  <si>
-    <t>GVAR-IIS\_m5 &amp; GVAR-IIS &amp; Yes &amp; $10^{-2.00}$ \\</t>
-  </si>
-  <si>
-    <t>MODELO 19 &amp; GVAR-IIS model &amp; Yes &amp; $10^{-2.00}$</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> \hline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    \end{tabular}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    \caption{Forecasting Models}</t>
-  </si>
-  <si>
     <t>GVAR-IIS_m17</t>
   </si>
   <si>
@@ -309,6 +219,33 @@
   </si>
   <si>
     <t>MAE_Net</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>pmcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VECM    </t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Net Employment</t>
+  </si>
+  <si>
+    <t>Discharged</t>
+  </si>
+  <si>
+    <t>Admitted</t>
+  </si>
+  <si>
+    <t>Log10_IIS</t>
+  </si>
+  <si>
+    <t>Model_number</t>
   </si>
 </sst>
 </file>
@@ -364,7 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -373,7 +310,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,36 +691,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Planilha1!$K$17:$K$25</c:f>
+              <c:f>Planilha1!$F$17:$F$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.8825091578407331</c:v>
+                  <c:v>1249.707539</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8723927692945646</c:v>
+                  <c:v>1239.8141680000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8474822877899619</c:v>
+                  <c:v>1233.8968589999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8640341828045841</c:v>
+                  <c:v>1271.044891</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8616816904292017</c:v>
+                  <c:v>1219.1615549999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8843519154560786</c:v>
+                  <c:v>1220.2277349999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9114228117384391</c:v>
+                  <c:v>1334.4151589999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9524003062863295</c:v>
+                  <c:v>1367.042733</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9524003062863295</c:v>
+                  <c:v>1367.042733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -860,36 +800,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Planilha1!$K$3:$K$11</c:f>
+              <c:f>Planilha1!$F$3:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.8817010424305787</c:v>
+                  <c:v>1335.1694680000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8940764693789482</c:v>
+                  <c:v>1348.3836960000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.943418287438563</c:v>
+                  <c:v>1364.1730010000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.935222173308496</c:v>
+                  <c:v>1345.182409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.922292876152957</c:v>
+                  <c:v>1396.2184360000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9396900559644106</c:v>
+                  <c:v>1332.107606</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9320361519117215</c:v>
+                  <c:v>1370.4652000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9492974061804977</c:v>
+                  <c:v>1385.0216419999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9492974061804977</c:v>
+                  <c:v>1385.0216419999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,7 +935,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1649,13 +1589,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -1982,16 +1922,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD603AD-80D9-423B-8C8C-99DA0102A422}">
-  <dimension ref="A2:K25"/>
+  <dimension ref="A2:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
@@ -2010,7 +1951,7 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -2019,7 +1960,7 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -2031,10 +1972,10 @@
         <v>9</v>
       </c>
       <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
         <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2055,7 +1996,8 @@
         <v>29</v>
       </c>
       <c r="F3" s="1">
-        <v>76155.459422</v>
+        <f>SUMIF($A$35:$A$52,C3,$E$35:$E$52)</f>
+        <v>1335.1694680000001</v>
       </c>
       <c r="G3" s="1">
         <v>76155.459422</v>
@@ -2093,7 +2035,8 @@
         <v>24</v>
       </c>
       <c r="F4" s="1">
-        <v>78356.759904999999</v>
+        <f t="shared" ref="F4:F25" si="3">SUMIF($A$35:$A$52,C4,$E$35:$E$52)</f>
+        <v>1348.3836960000001</v>
       </c>
       <c r="G4" s="1">
         <v>78356.759904999999</v>
@@ -2131,7 +2074,8 @@
         <v>28</v>
       </c>
       <c r="F5" s="1">
-        <v>87784.590473999997</v>
+        <f t="shared" si="3"/>
+        <v>1364.1730010000001</v>
       </c>
       <c r="G5" s="1">
         <v>87784.590473999997</v>
@@ -2169,7 +2113,8 @@
         <v>23</v>
       </c>
       <c r="F6" s="1">
-        <v>86143.432597999999</v>
+        <f t="shared" si="3"/>
+        <v>1345.182409</v>
       </c>
       <c r="G6" s="1">
         <v>86143.432597999999</v>
@@ -2207,7 +2152,8 @@
         <v>27</v>
       </c>
       <c r="F7" s="1">
-        <v>83616.671577999994</v>
+        <f t="shared" si="3"/>
+        <v>1396.2184360000001</v>
       </c>
       <c r="G7" s="1">
         <v>83616.671577999994</v>
@@ -2245,7 +2191,8 @@
         <v>26</v>
       </c>
       <c r="F8" s="1">
-        <v>87034.222892999998</v>
+        <f t="shared" si="3"/>
+        <v>1332.107606</v>
       </c>
       <c r="G8" s="1">
         <v>87034.222892999998</v>
@@ -2283,7 +2230,8 @@
         <v>14</v>
       </c>
       <c r="F9" s="1">
-        <v>85513.789403999996</v>
+        <f t="shared" si="3"/>
+        <v>1370.4652000000001</v>
       </c>
       <c r="G9" s="1">
         <v>85513.789403999996</v>
@@ -2321,7 +2269,8 @@
         <v>25</v>
       </c>
       <c r="F10" s="1">
-        <v>88981.025403000007</v>
+        <f t="shared" si="3"/>
+        <v>1385.0216419999999</v>
       </c>
       <c r="G10" s="1">
         <v>88981.025403000007</v>
@@ -2359,7 +2308,8 @@
         <v>30</v>
       </c>
       <c r="F11" s="1">
-        <v>88981.025403000007</v>
+        <f t="shared" si="3"/>
+        <v>1385.0216419999999</v>
       </c>
       <c r="G11" s="1">
         <v>88981.025403000007</v>
@@ -2398,7 +2348,8 @@
         <v>Modelo -5</v>
       </c>
       <c r="F12" s="1">
-        <v>362152.34516500001</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
         <v>362152.34516500001</v>
@@ -2437,7 +2388,8 @@
         <v>Modelo -4</v>
       </c>
       <c r="F13" s="1">
-        <v>89917.38682</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <v>89917.38682</v>
@@ -2476,7 +2428,8 @@
         <v>Modelo -3</v>
       </c>
       <c r="F14" s="1">
-        <v>167210.63130499999</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
         <v>167210.63130499999</v>
@@ -2515,7 +2468,8 @@
         <v>Modelo -2</v>
       </c>
       <c r="F15" s="1">
-        <v>73322.092443000001</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <v>73322.092443000001</v>
@@ -2554,7 +2508,8 @@
         <v>Modelo -1</v>
       </c>
       <c r="F16" s="1">
-        <v>61850.129827999997</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>61850.129827999997</v>
@@ -2592,7 +2547,8 @@
         <v>7</v>
       </c>
       <c r="F17" s="1">
-        <v>76297.297957999996</v>
+        <f t="shared" si="3"/>
+        <v>1249.707539</v>
       </c>
       <c r="G17" s="1">
         <v>76297.297957999996</v>
@@ -2630,7 +2586,8 @@
         <v>6</v>
       </c>
       <c r="F18" s="1">
-        <v>74540.580277999994</v>
+        <f t="shared" si="3"/>
+        <v>1239.8141680000001</v>
       </c>
       <c r="G18" s="1">
         <v>74540.580277999994</v>
@@ -2668,7 +2625,8 @@
         <v>21</v>
       </c>
       <c r="F19" s="1">
-        <v>70385.352148000005</v>
+        <f t="shared" si="3"/>
+        <v>1233.8968589999999</v>
       </c>
       <c r="G19" s="1">
         <v>70385.352148000005</v>
@@ -2706,7 +2664,8 @@
         <v>22</v>
       </c>
       <c r="F20" s="1">
-        <v>73119.663283999995</v>
+        <f t="shared" si="3"/>
+        <v>1271.044891</v>
       </c>
       <c r="G20" s="1">
         <v>73119.663283999995</v>
@@ -2744,7 +2703,8 @@
         <v>20</v>
       </c>
       <c r="F21" s="1">
-        <v>72724.658477000004</v>
+        <f t="shared" si="3"/>
+        <v>1219.1615549999999</v>
       </c>
       <c r="G21" s="1">
         <v>72724.658477000004</v>
@@ -2782,7 +2742,8 @@
         <v>16</v>
       </c>
       <c r="F22" s="1">
-        <v>76621.723295999996</v>
+        <f t="shared" si="3"/>
+        <v>1220.2277349999999</v>
       </c>
       <c r="G22" s="1">
         <v>76621.723295999996</v>
@@ -2820,7 +2781,8 @@
         <v>15</v>
       </c>
       <c r="F23" s="1">
-        <v>81549.783374999999</v>
+        <f t="shared" si="3"/>
+        <v>1334.4151589999999</v>
       </c>
       <c r="G23" s="1">
         <v>81549.783374999999</v>
@@ -2858,7 +2820,8 @@
         <v>11</v>
       </c>
       <c r="F24" s="1">
-        <v>89619.043890000001</v>
+        <f t="shared" si="3"/>
+        <v>1367.042733</v>
       </c>
       <c r="G24" s="1">
         <v>89619.043890000001</v>
@@ -2896,7 +2859,8 @@
         <v>31</v>
       </c>
       <c r="F25" s="1">
-        <v>89619.043890000001</v>
+        <f t="shared" si="3"/>
+        <v>1367.042733</v>
       </c>
       <c r="G25" s="1">
         <v>89619.043890000001</v>
@@ -2914,6 +2878,326 @@
       <c r="K25">
         <f t="shared" si="2"/>
         <v>4.9524003062863295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1215.0544150000001</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1036.4390699999999</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1335.1694680000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1232.070281</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1027.2652210000001</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1348.3836960000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1255.888318</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1032.684555</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1364.1730010000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1234.3286889999999</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1031.9226799999999</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1345.182409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1274.6322580000001</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1058.55537</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1396.2184360000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1292.539929</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1045.3666559999999</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1332.107606</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1221.4552020000001</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1077.7243189999999</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1370.4652000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1235.8342869999999</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1124.181163</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1385.0216419999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1235.8342869999999</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1124.181163</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1385.0216419999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="6">
+        <v>1168.6909089999999</v>
+      </c>
+      <c r="D44" s="6">
+        <v>1071.4768549999999</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1249.707539</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1173.8298179999999</v>
+      </c>
+      <c r="D45" s="6">
+        <v>1015.106357</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1239.8141680000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1120.092989</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1096.022383</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1233.8968589999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1124.6226959999999</v>
+      </c>
+      <c r="D47" s="6">
+        <v>1107.267595</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1271.044891</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="6">
+        <v>1122.443501</v>
+      </c>
+      <c r="D48" s="6">
+        <v>1013.217721</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1219.1615549999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1136.1899040000001</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1015.67408</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1220.2277349999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1159.168038</v>
+      </c>
+      <c r="D50" s="6">
+        <v>1189.8444950000001</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1334.4151589999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1163.366747</v>
+      </c>
+      <c r="D51" s="6">
+        <v>1201.6673619999999</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1367.042733</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1163.366747</v>
+      </c>
+      <c r="D52" s="6">
+        <v>1201.6673619999999</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1367.042733</v>
       </c>
     </row>
   </sheetData>
@@ -2926,76 +3210,112 @@
     <sortCondition ref="E3:E20"/>
   </sortState>
   <conditionalFormatting sqref="Q37:Q40">
-    <cfRule type="top10" dxfId="23" priority="18" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="23" priority="21" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32:Q35">
-    <cfRule type="top10" dxfId="22" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="20" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:P35">
-    <cfRule type="top10" dxfId="21" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="21" priority="17" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37:P40">
-    <cfRule type="top10" dxfId="20" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="16" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V37:V40">
-    <cfRule type="top10" dxfId="19" priority="12" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="19" priority="15" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V32:V35">
-    <cfRule type="top10" dxfId="18" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="14" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32:U35">
-    <cfRule type="top10" dxfId="17" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="11" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U37:U40">
-    <cfRule type="top10" dxfId="16" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="10" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z37:Z40">
-    <cfRule type="top10" dxfId="15" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="15" priority="9" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z32:Z35">
-    <cfRule type="top10" dxfId="14" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y32:Y35">
-    <cfRule type="top10" dxfId="13" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="13" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y37:Y40">
-    <cfRule type="top10" dxfId="12" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="top10" dxfId="11" priority="30" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="33" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q21">
-    <cfRule type="top10" dxfId="10" priority="31" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="34" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5:P7">
-    <cfRule type="top10" dxfId="9" priority="32" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="35" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:Q7">
-    <cfRule type="top10" dxfId="8" priority="33" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="36" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28:Q30">
-    <cfRule type="top10" dxfId="7" priority="34" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="37" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:P30">
-    <cfRule type="top10" dxfId="6" priority="35" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="38" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V28:V30">
-    <cfRule type="top10" dxfId="5" priority="36" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="39" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28:U30">
-    <cfRule type="top10" dxfId="4" priority="37" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="40" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z28:Z30">
-    <cfRule type="top10" dxfId="3" priority="38" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="41" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y28:Y30">
-    <cfRule type="top10" dxfId="2" priority="39" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="42" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:P17">
-    <cfRule type="top10" dxfId="1" priority="40" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="43" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:Q17">
-    <cfRule type="top10" dxfId="0" priority="42" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="45" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:C52">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D52">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:E52">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3004,697 +3324,937 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AD115F-2B63-405E-A771-E3192D685F6A}">
-  <dimension ref="E6:F32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C01D3B4-33DD-4718-A74B-818A7E652163}">
+  <dimension ref="C1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F32"/>
+      <selection activeCell="F22" sqref="C1:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1215.0544150000001</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1036.4390699999999</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1335.1694680000001</v>
+      </c>
+      <c r="G2" s="6">
+        <v>352.87749700000001</v>
+      </c>
+      <c r="H2" s="6">
+        <v>314.519295</v>
+      </c>
+      <c r="I2" s="6">
+        <v>442.11035600000002</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1232.070281</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1027.2652210000001</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1348.3836960000001</v>
+      </c>
+      <c r="G3" s="6">
+        <v>356.96097700000001</v>
+      </c>
+      <c r="H3" s="6">
+        <v>313.82258100000001</v>
+      </c>
+      <c r="I3" s="6">
+        <v>450.32104700000002</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+      <c r="D4" s="6">
+        <v>1255.888318</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1032.684555</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1364.1730010000001</v>
+      </c>
+      <c r="G4" s="6">
+        <v>358.35177599999997</v>
+      </c>
+      <c r="H4" s="6">
+        <v>314.114959</v>
+      </c>
+      <c r="I4" s="6">
+        <v>446.22387300000003</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
+      <c r="D5" s="6">
+        <v>1234.3286889999999</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1031.9226799999999</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1345.182409</v>
+      </c>
+      <c r="G5" s="6">
+        <v>355.52461899999997</v>
+      </c>
+      <c r="H5" s="6">
+        <v>311.124619</v>
+      </c>
+      <c r="I5" s="6">
+        <v>444.18430499999999</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+      <c r="D6" s="6">
+        <v>1274.6322580000001</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1058.55537</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1396.2184360000001</v>
+      </c>
+      <c r="G6" s="6">
+        <v>355.49597799999998</v>
+      </c>
+      <c r="H6" s="6">
+        <v>312.098095</v>
+      </c>
+      <c r="I6" s="6">
+        <v>446.62556599999999</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+      <c r="D7" s="6">
+        <v>1292.539929</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1045.3666559999999</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1332.107606</v>
+      </c>
+      <c r="G7" s="6">
+        <v>363.705465</v>
+      </c>
+      <c r="H7" s="6">
+        <v>312.27824399999997</v>
+      </c>
+      <c r="I7" s="6">
+        <v>443.50512700000002</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
+      <c r="D8" s="6">
+        <v>1221.4552020000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1077.7243189999999</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1370.4652000000001</v>
+      </c>
+      <c r="G8" s="6">
+        <v>352.41253599999999</v>
+      </c>
+      <c r="H8" s="6">
+        <v>314.95902000000001</v>
+      </c>
+      <c r="I8" s="6">
+        <v>444.63044300000001</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
+      <c r="D9" s="6">
+        <v>1235.8342869999999</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1124.181163</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1385.0216419999999</v>
+      </c>
+      <c r="G9" s="6">
+        <v>359.01748500000002</v>
+      </c>
+      <c r="H9" s="6">
+        <v>318.21470199999999</v>
+      </c>
+      <c r="I9" s="6">
+        <v>448.66319099999998</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
+      <c r="D10" s="6">
+        <v>1235.8342869999999</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1124.181163</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1385.0216419999999</v>
+      </c>
+      <c r="G10" s="6">
+        <v>359.01748500000002</v>
+      </c>
+      <c r="H10" s="6">
+        <v>318.21470199999999</v>
+      </c>
+      <c r="I10" s="6">
+        <v>448.66319099999998</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1913.6498919999999</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1674.9475689999999</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2494.2472360000002</v>
+      </c>
+      <c r="G11" s="6">
+        <v>526.06990699999994</v>
+      </c>
+      <c r="H11" s="6">
+        <v>489.57536900000002</v>
+      </c>
+      <c r="I11" s="6">
+        <v>751.64623200000005</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1181.7724069999999</v>
+      </c>
+      <c r="E12" s="6">
+        <v>912.10350000000005</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1278.030542</v>
+      </c>
+      <c r="G12" s="6">
+        <v>335.18358599999999</v>
+      </c>
+      <c r="H12" s="6">
+        <v>290.99593499999997</v>
+      </c>
+      <c r="I12" s="6">
+        <v>420.988721</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1377.109561</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1170.8371259999999</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1404.78153</v>
+      </c>
+      <c r="G13" s="7">
+        <v>419.59272600000003</v>
+      </c>
+      <c r="H13" s="7">
+        <v>387.98210999999998</v>
+      </c>
+      <c r="I13" s="7">
+        <v>512.85629400000005</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+      <c r="D14" s="6">
+        <v>1168.6909089999999</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1071.4768549999999</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1249.707539</v>
+      </c>
+      <c r="G14" s="6">
+        <v>349.99653799999999</v>
+      </c>
+      <c r="H14" s="6">
+        <v>322.51881600000002</v>
+      </c>
+      <c r="I14" s="6">
+        <v>438.01664799999998</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+      <c r="D15" s="6">
+        <v>1173.8298179999999</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1015.106357</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1239.8141680000001</v>
+      </c>
+      <c r="G15" s="6">
+        <v>352.81978800000002</v>
+      </c>
+      <c r="H15" s="6">
+        <v>313.653076</v>
+      </c>
+      <c r="I15" s="6">
+        <v>434.83596699999998</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="F15" t="s">
+      <c r="D16" s="6">
+        <v>1120.092989</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1096.022383</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1233.8968589999999</v>
+      </c>
+      <c r="G16" s="6">
+        <v>341.48583000000002</v>
+      </c>
+      <c r="H16" s="6">
+        <v>318.57320800000002</v>
+      </c>
+      <c r="I16" s="6">
+        <v>426.38234199999999</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D17" s="6">
+        <v>1124.6226959999999</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1107.267595</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1271.044891</v>
+      </c>
+      <c r="G17" s="6">
+        <v>340.44491699999998</v>
+      </c>
+      <c r="H17" s="6">
+        <v>319.81561699999997</v>
+      </c>
+      <c r="I17" s="6">
+        <v>430.906296</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
+      <c r="D18" s="6">
+        <v>1122.443501</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1013.217721</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1219.1615549999999</v>
+      </c>
+      <c r="G18" s="6">
+        <v>341.76014199999997</v>
+      </c>
+      <c r="H18" s="6">
+        <v>310.67460699999998</v>
+      </c>
+      <c r="I18" s="6">
+        <v>426.70223099999998</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D19" s="6">
+        <v>1136.1899040000001</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1015.67408</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1220.2277349999999</v>
+      </c>
+      <c r="G19" s="6">
+        <v>343.01568600000002</v>
+      </c>
+      <c r="H19" s="6">
+        <v>310.77473400000002</v>
+      </c>
+      <c r="I19" s="6">
+        <v>427.55171000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+      <c r="D20" s="6">
+        <v>1159.168038</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1189.8444950000001</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1334.4151589999999</v>
+      </c>
+      <c r="G20" s="6">
+        <v>352.42785199999997</v>
+      </c>
+      <c r="H20" s="6">
+        <v>321.47627499999999</v>
+      </c>
+      <c r="I20" s="6">
+        <v>438.28246899999999</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
+      <c r="D21" s="6">
+        <v>1163.366747</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1201.6673619999999</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1367.042733</v>
+      </c>
+      <c r="G21" s="6">
+        <v>354.66926000000001</v>
+      </c>
+      <c r="H21" s="6">
+        <v>328.08905099999998</v>
+      </c>
+      <c r="I21" s="6">
+        <v>446.71303999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>64</v>
+      <c r="D22" s="6">
+        <v>1163.366747</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1201.6673619999999</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1367.042733</v>
+      </c>
+      <c r="G22" s="6">
+        <v>354.66926000000001</v>
+      </c>
+      <c r="H22" s="6">
+        <v>328.08905099999998</v>
+      </c>
+      <c r="I22" s="6">
+        <v>446.71303999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f>MIN(D2:D22)</f>
+        <v>1120.092989</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:I25" si="0">MIN(E2:E22)</f>
+        <v>912.10350000000005</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1219.1615549999999</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>335.18358599999999</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>290.99593499999997</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>420.988721</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="6">
+        <f>MAX(D2:D10)</f>
+        <v>1292.539929</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" ref="E26:I26" si="1">MAX(E2:E10)</f>
+        <v>1124.181163</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="1"/>
+        <v>1396.2184360000001</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="1"/>
+        <v>363.705465</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="1"/>
+        <v>318.21470199999999</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="1"/>
+        <v>450.32104700000002</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="6">
+        <f>D13</f>
+        <v>1377.109561</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" ref="E27:I27" si="2">E13</f>
+        <v>1170.8371259999999</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="2"/>
+        <v>1404.78153</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="2"/>
+        <v>419.59272600000003</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="2"/>
+        <v>387.98210999999998</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="2"/>
+        <v>512.85629400000005</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D28" t="b">
+        <f>D26&lt;D27</f>
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <f t="shared" ref="E28:I28" si="3">E26&lt;E27</f>
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H28" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D22">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E22">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G22">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H22">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C01D3B4-33DD-4718-A74B-818A7E652163}">
-  <dimension ref="C1:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95E5793-0D1A-4F50-98BF-38DE44DD38A1}">
+  <dimension ref="B2:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
       <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="8"/>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
         <v>65</v>
       </c>
-      <c r="D2">
-        <v>1215.0544150000001</v>
-      </c>
-      <c r="E2">
-        <v>1036.4390699999999</v>
-      </c>
-      <c r="F2">
-        <v>1335.1694680000001</v>
-      </c>
-      <c r="G2">
-        <v>352.87749700000001</v>
-      </c>
-      <c r="H2">
-        <v>314.519295</v>
-      </c>
-      <c r="I2">
-        <v>442.11035600000002</v>
-      </c>
-    </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E10" t="s">
         <v>66</v>
       </c>
-      <c r="D3">
-        <v>1232.070281</v>
-      </c>
-      <c r="E3">
-        <v>1027.2652210000001</v>
-      </c>
-      <c r="F3">
-        <v>1348.3836960000001</v>
-      </c>
-      <c r="G3">
-        <v>356.96097700000001</v>
-      </c>
-      <c r="H3">
-        <v>313.82258100000001</v>
-      </c>
-      <c r="I3">
-        <v>450.32104700000002</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4">
-        <v>1255.888318</v>
-      </c>
-      <c r="E4">
-        <v>1032.684555</v>
-      </c>
-      <c r="F4">
-        <v>1364.1730010000001</v>
-      </c>
-      <c r="G4">
-        <v>358.35177599999997</v>
-      </c>
-      <c r="H4">
-        <v>314.114959</v>
-      </c>
-      <c r="I4">
-        <v>446.22387300000003</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5">
-        <v>1234.3286889999999</v>
-      </c>
-      <c r="E5">
-        <v>1031.9226799999999</v>
-      </c>
-      <c r="F5">
-        <v>1345.182409</v>
-      </c>
-      <c r="G5">
-        <v>355.52461899999997</v>
-      </c>
-      <c r="H5">
-        <v>311.124619</v>
-      </c>
-      <c r="I5">
-        <v>444.18430499999999</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6">
-        <v>1274.6322580000001</v>
-      </c>
-      <c r="E6">
-        <v>1058.55537</v>
-      </c>
-      <c r="F6">
-        <v>1396.2184360000001</v>
-      </c>
-      <c r="G6">
-        <v>355.49597799999998</v>
-      </c>
-      <c r="H6">
-        <v>312.098095</v>
-      </c>
-      <c r="I6">
-        <v>446.62556599999999</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7">
-        <v>1292.539929</v>
-      </c>
-      <c r="E7">
-        <v>1045.3666559999999</v>
-      </c>
-      <c r="F7">
-        <v>1332.107606</v>
-      </c>
-      <c r="G7">
-        <v>363.705465</v>
-      </c>
-      <c r="H7">
-        <v>312.27824399999997</v>
-      </c>
-      <c r="I7">
-        <v>443.50512700000002</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8">
-        <v>1221.4552020000001</v>
-      </c>
-      <c r="E8">
-        <v>1077.7243189999999</v>
-      </c>
-      <c r="F8">
-        <v>1370.4652000000001</v>
-      </c>
-      <c r="G8">
-        <v>352.41253599999999</v>
-      </c>
-      <c r="H8">
-        <v>314.95902000000001</v>
-      </c>
-      <c r="I8">
-        <v>444.63044300000001</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9">
-        <v>1235.8342869999999</v>
-      </c>
-      <c r="E9">
-        <v>1124.181163</v>
-      </c>
-      <c r="F9">
-        <v>1385.0216419999999</v>
-      </c>
-      <c r="G9">
-        <v>359.01748500000002</v>
-      </c>
-      <c r="H9">
-        <v>318.21470199999999</v>
-      </c>
-      <c r="I9">
-        <v>448.66319099999998</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10">
-        <v>1235.8342869999999</v>
-      </c>
-      <c r="E10">
-        <v>1124.181163</v>
-      </c>
-      <c r="F10">
-        <v>1385.0216419999999</v>
-      </c>
-      <c r="G10">
-        <v>359.01748500000002</v>
-      </c>
-      <c r="H10">
-        <v>318.21470199999999</v>
+      <c r="H10" t="s">
+        <v>48</v>
       </c>
       <c r="I10">
-        <v>448.66319099999998</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1913.6498919999999</v>
-      </c>
-      <c r="E13">
-        <v>1674.9475689999999</v>
-      </c>
-      <c r="F13">
-        <v>2494.2472360000002</v>
-      </c>
-      <c r="G13">
-        <v>526.06990699999994</v>
-      </c>
-      <c r="H13">
-        <v>489.57536900000002</v>
-      </c>
-      <c r="I13">
-        <v>751.64623200000005</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1181.7724069999999</v>
-      </c>
-      <c r="E14">
-        <v>912.10350000000005</v>
-      </c>
-      <c r="F14">
-        <v>1278.030542</v>
-      </c>
-      <c r="G14">
-        <v>335.18358599999999</v>
-      </c>
-      <c r="H14">
-        <v>290.99593499999997</v>
-      </c>
-      <c r="I14">
-        <v>420.988721</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="6">
-        <v>1377.109561</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1170.8371259999999</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1404.78153</v>
-      </c>
-      <c r="G15" s="6">
-        <v>419.59272600000003</v>
-      </c>
-      <c r="H15" s="6">
-        <v>387.98210999999998</v>
-      </c>
-      <c r="I15" s="6">
-        <v>512.85629400000005</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16">
-        <v>1168.6909089999999</v>
-      </c>
-      <c r="E16">
-        <v>1071.4768549999999</v>
-      </c>
-      <c r="F16">
-        <v>1249.707539</v>
-      </c>
-      <c r="G16">
-        <v>349.99653799999999</v>
-      </c>
-      <c r="H16">
-        <v>322.51881600000002</v>
-      </c>
-      <c r="I16">
-        <v>438.01664799999998</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17">
-        <v>1173.8298179999999</v>
-      </c>
-      <c r="E17">
-        <v>1015.106357</v>
-      </c>
-      <c r="F17">
-        <v>1239.8141680000001</v>
-      </c>
-      <c r="G17">
-        <v>352.81978800000002</v>
-      </c>
-      <c r="H17">
-        <v>313.653076</v>
-      </c>
-      <c r="I17">
-        <v>434.83596699999998</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18">
-        <v>1120.092989</v>
-      </c>
-      <c r="E18">
-        <v>1096.022383</v>
-      </c>
-      <c r="F18">
-        <v>1233.8968589999999</v>
-      </c>
-      <c r="G18">
-        <v>341.48583000000002</v>
-      </c>
-      <c r="H18">
-        <v>318.57320800000002</v>
-      </c>
-      <c r="I18">
-        <v>426.38234199999999</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19">
-        <v>1124.6226959999999</v>
-      </c>
-      <c r="E19">
-        <v>1107.267595</v>
-      </c>
-      <c r="F19">
-        <v>1271.044891</v>
-      </c>
-      <c r="G19">
-        <v>340.44491699999998</v>
-      </c>
-      <c r="H19">
-        <v>319.81561699999997</v>
-      </c>
-      <c r="I19">
-        <v>430.906296</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20">
-        <v>1122.443501</v>
-      </c>
-      <c r="E20">
-        <v>1013.217721</v>
-      </c>
-      <c r="F20">
-        <v>1219.1615549999999</v>
-      </c>
-      <c r="G20">
-        <v>341.76014199999997</v>
-      </c>
-      <c r="H20">
-        <v>310.67460699999998</v>
-      </c>
-      <c r="I20">
-        <v>426.70223099999998</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21">
-        <v>1136.1899040000001</v>
-      </c>
-      <c r="E21">
-        <v>1015.67408</v>
-      </c>
-      <c r="F21">
-        <v>1220.2277349999999</v>
-      </c>
-      <c r="G21">
-        <v>343.01568600000002</v>
-      </c>
-      <c r="H21">
-        <v>310.77473400000002</v>
-      </c>
-      <c r="I21">
-        <v>427.55171000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22">
-        <v>1159.168038</v>
-      </c>
-      <c r="E22">
-        <v>1189.8444950000001</v>
-      </c>
-      <c r="F22">
-        <v>1334.4151589999999</v>
-      </c>
-      <c r="G22">
-        <v>352.42785199999997</v>
-      </c>
-      <c r="H22">
-        <v>321.47627499999999</v>
-      </c>
-      <c r="I22">
-        <v>438.28246899999999</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23">
-        <v>1163.366747</v>
-      </c>
-      <c r="E23">
-        <v>1201.6673619999999</v>
-      </c>
-      <c r="F23">
-        <v>1367.042733</v>
-      </c>
-      <c r="G23">
-        <v>354.66926000000001</v>
-      </c>
-      <c r="H23">
-        <v>328.08905099999998</v>
-      </c>
-      <c r="I23">
-        <v>446.71303999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24">
-        <v>1163.366747</v>
-      </c>
-      <c r="E24">
-        <v>1201.6673619999999</v>
-      </c>
-      <c r="F24">
-        <v>1367.042733</v>
-      </c>
-      <c r="G24">
-        <v>354.66926000000001</v>
-      </c>
-      <c r="H24">
-        <v>328.08905099999998</v>
-      </c>
-      <c r="I24">
-        <v>446.71303999999998</v>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
